--- a/SampleExcelFiles/SampleMetadata.xlsx
+++ b/SampleExcelFiles/SampleMetadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Projects/GitHub/UniSharper.Data.Metadata/SampleExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA9D4FA-889C-8B4F-A914-AF9F5C099472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08F23FF-6523-E642-9053-CF4D1E52E330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33540" yWindow="2300" windowWidth="33040" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="144">
   <si>
     <t>long</t>
   </si>
@@ -424,6 +424,178 @@
   </si>
   <si>
     <t>9.9999|10.11111|-11.124454354|12.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector2 value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector2Sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1.0, 1.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector2Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector2Int value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector2IntSample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3 value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3Sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1.0, 1.0, 1.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3Int value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3IntSample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1, 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector4 value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector4Sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1.0, 1.0, 1.0, 1.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeInt value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeIntSample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quaternion value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quaternion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuaternionSample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rect value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RectSample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RectInt value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RectInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RectIntSample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(x:1, y:1, width:100, height:100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(x:1.0, y:1.0, width:100.0, height:100.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColorSample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGBA(1.0, 1.0, 1.0, 1.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color32 value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color32Sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGBA(255, 255, 255, 255)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,11 +1065,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AM4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1"/>
@@ -916,24 +1088,29 @@
     <col min="12" max="12" width="19" style="3" customWidth="1"/>
     <col min="13" max="13" width="18.5" style="3" customWidth="1"/>
     <col min="14" max="14" width="21.6640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="30.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="27.5" style="3" customWidth="1"/>
-    <col min="18" max="18" width="22.83203125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="23" style="3" customWidth="1"/>
-    <col min="20" max="20" width="24.5" style="3" customWidth="1"/>
-    <col min="21" max="21" width="25.1640625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="25.5" style="3" customWidth="1"/>
-    <col min="23" max="23" width="26" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.5" style="3" customWidth="1"/>
-    <col min="25" max="25" width="24.6640625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="23.33203125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="24.83203125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="44.83203125" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="20.6640625" style="3"/>
+    <col min="15" max="21" width="22.6640625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="25.33203125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="44.83203125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="39.83203125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="28.83203125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="31.5" style="3" customWidth="1"/>
+    <col min="27" max="27" width="30.5" style="3" customWidth="1"/>
+    <col min="28" max="28" width="27.5" style="3" customWidth="1"/>
+    <col min="29" max="29" width="22.83203125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="23" style="3" customWidth="1"/>
+    <col min="31" max="31" width="24.5" style="3" customWidth="1"/>
+    <col min="32" max="32" width="25.1640625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="25.5" style="3" customWidth="1"/>
+    <col min="34" max="34" width="26" style="3" customWidth="1"/>
+    <col min="35" max="35" width="22.5" style="3" customWidth="1"/>
+    <col min="36" max="36" width="24.6640625" style="3" customWidth="1"/>
+    <col min="37" max="37" width="23.33203125" style="3" customWidth="1"/>
+    <col min="38" max="38" width="24.83203125" style="3" customWidth="1"/>
+    <col min="39" max="39" width="44.83203125" style="3" customWidth="1"/>
+    <col min="40" max="16384" width="20.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" customHeight="1">
+    <row r="1" spans="1:39" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -980,46 +1157,79 @@
         <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="30" customHeight="1">
+    <row r="2" spans="1:39" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1066,46 +1276,79 @@
         <v>33</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="30" customHeight="1">
+    <row r="3" spans="1:39" ht="30" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -1152,46 +1395,79 @@
         <v>65</v>
       </c>
       <c r="P3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="AE3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="AG3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AK3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AL3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AM3" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="30" customHeight="1">
+    <row r="4" spans="1:39" ht="30" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1238,42 +1514,75 @@
         <v>34</v>
       </c>
       <c r="P4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="AG4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="AH4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="AI4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AK4" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AL4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AM4" s="5" t="s">
         <v>100</v>
       </c>
     </row>

--- a/SampleExcelFiles/SampleMetadata.xlsx
+++ b/SampleExcelFiles/SampleMetadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Projects/GitHub/UniSharper.Data.Metadata/SampleExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08F23FF-6523-E642-9053-CF4D1E52E330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E41614-F27A-6B47-AC65-50134C313451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33540" yWindow="2300" windowWidth="33040" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="2180" windowWidth="33040" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TestEnumType1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bool value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -596,6 +592,10 @@
   </si>
   <si>
     <t>RGBA(255, 255, 255, 255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumSampleType1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,8 +1068,8 @@
   <dimension ref="A1:AM4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA6" sqref="AA6"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1"/>
@@ -1088,7 +1088,8 @@
     <col min="12" max="12" width="19" style="3" customWidth="1"/>
     <col min="13" max="13" width="18.5" style="3" customWidth="1"/>
     <col min="14" max="14" width="21.6640625" style="3" customWidth="1"/>
-    <col min="15" max="21" width="22.6640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="28" style="3" customWidth="1"/>
+    <col min="16" max="21" width="22.6640625" style="3" customWidth="1"/>
     <col min="22" max="22" width="25.33203125" style="3" customWidth="1"/>
     <col min="23" max="23" width="44.83203125" style="3" customWidth="1"/>
     <col min="24" max="24" width="39.83203125" style="3" customWidth="1"/>
@@ -1115,118 +1116,118 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="AE1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="30" customHeight="1">
@@ -1258,7 +1259,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>8</v>
@@ -1276,37 +1277,37 @@
         <v>33</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA2" s="4" t="s">
         <v>25</v>
@@ -1353,118 +1354,118 @@
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="J3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AB3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="AG3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AK3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AL3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AL3" s="5" t="s">
+      <c r="AM3" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="30" customHeight="1">
@@ -1478,10 +1479,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="F4" s="5">
         <v>-32768</v>
@@ -1511,79 +1512,79 @@
         <v>9.9999999999999908E+27</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="AE4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AG4" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="AH4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="AK4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL4" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AM4" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="AM4" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
